--- a/static/base_data/化疗多态位点证据列表结直肠癌.xlsx
+++ b/static/base_data/化疗多态位点证据列表结直肠癌.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
-  <si>
-    <t>铂类药物</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="176">
   <si>
     <t>rs1872328</t>
   </si>
@@ -105,9 +102,6 @@
     <t>C/T</t>
   </si>
   <si>
-    <t>氟尿嘧啶类</t>
-  </si>
-  <si>
     <t>rs3918290</t>
   </si>
   <si>
@@ -127,18 +121,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Patients with brain tumors, osteosarcoma, and other cancers and the AA genotype may have an increased risk of ototoxicity when treated with regimens containing cisplatin as compared to patients with the GG genotypes. Other clinical and genetic factors may also influence risk of ototoxicity in patients exposed to cisplatin. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Patients with brain tumors, osteosarcoma, and other cancers and the AG genotype may have an increased risk of ototoxicity when treated with regimens containing cisplatin as compared to patients with the GG genotypes. Other clinical and genetic factors may also influence risk of ototoxicity in pediatric patients exposed to cisplatin. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Patients with brain tumors, osteosarcoma, and other cancers and the GG genotype may have a decreased risk of ototoxicity when treated with regimens containing cisplatin as compared to patients with the AA or AG genotypes. Other clinical and genetic factors may also influence risk of ototoxicityin patients exposed to cisplatin. </t>
   </si>
   <si>
@@ -203,10 +189,6 @@
     <t>Patients with the GG genotype may have 1) increased risk for toxicity 2) decreased survival when treated with antineoplastic agents as compared to patients with the CC genotype. Other genetic and clinical factors may also influence a patient's response to antineoplastic agents.</t>
   </si>
   <si>
-    <t>1B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Patients with the GG genotype may have an increased risk for toxicity with cisplatin treatment, including hearing loss and neutropenia, as compared to patients with the TT genotype. Other genetic and clinical factors may also influence a patient's risk for toxicity.</t>
   </si>
   <si>
@@ -290,31 +272,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ACYP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERCC1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSTP1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTHFR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP53</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>XPC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XRCC1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -382,6 +340,328 @@
   </si>
   <si>
     <t>毒副作用低、疗效好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂类药物（顺铂、卡铂、奥沙利铂等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACYP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERCC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DYNC2H1</t>
+  </si>
+  <si>
+    <t>Patients with the AA genotype may have decreased risk of Death when treated with etoposide and Platinum compounds in people with Carcinoma, Small Cell as compared to patients with genotype GG or AG. Other genetic and clinical factors may also influence the response to etoposide and Platinum compounds.</t>
+  </si>
+  <si>
+    <t>Patients with the AG genotype may have increased risk of Death when treated with etoposide and Platinum compounds in people with Carcinoma, Small Cell as compared to patients with genotype AA. Other genetic and clinical factors may also influence the response to etoposide and Platinum compounds.</t>
+  </si>
+  <si>
+    <t>Patients with the GG genotype may have increased risk of Death when treated with etoposide and Platinum compounds in people with Carcinoma, Small Cell as compared to patients with genotype AA. Other genetic and clinical factors may also influence the response to etoposide and Platinum compounds.</t>
+  </si>
+  <si>
+    <t>NQO1</t>
+  </si>
+  <si>
+    <t>rs1800566</t>
+  </si>
+  <si>
+    <t>Patients with the AA genotype and cancer who are treated with chemotherapy regimes that include platinum compounds, anthracyclines and related substances, and nucleoside inhibitors may have worse outcome (overall survival and progression-free survival) as compared to patients with the GG genotype. However, this has been contradicted in some studies. Other genetic and clinical factors may also influence a patient's treatment outcome.</t>
+  </si>
+  <si>
+    <t>Patients with the AG genotype and cancer who are treated with chemotherapy regimes that include platinum compounds, anthracyclines and related substances, and nucleoside inhibitors may have a a better outcome (overall survival and progression-free survival) as compared to patients with the AA genotype and a worse outcome as compared to patients with the GG genotype. However, this has been contradicted in some studies. Other genetic and clinical factors may also influence a patient's treatment outcome.</t>
+  </si>
+  <si>
+    <t>Patients with the GG genotype and Breast Neoplasms and cancer who are treated with chemotherapy regimes that include platinum compounds, anthracyclines and related substances, and nucleoside inhibitors may have a better outcome (overall survival and progression-free survival) as compared to patients with the AA genotype. However, this has been contradicted in some studies. Other genetic and clinical factors may also influence a patient's treatment outcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with brain tumors, osteosarcoma, and other cancers and the AA genotype may have an increased risk of ototoxicity when treated with regimens containing cisplatin as compared to patients with the GG genotypes. Other clinical and genetic factors may also influence risk of ototoxicity in patients exposed to cisplatin. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACYP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with brain tumors, osteosarcoma, and other cancers and the AG genotype may have an increased risk of ototoxicity when treated with regimens containing cisplatin as compared to patients with the GG genotypes. Other clinical and genetic factors may also influence risk of ototoxicity in pediatric patients exposed to cisplatin. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERCC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSTP1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTHFR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP53</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs716274</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗效好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A/G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗效中等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗效差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRCC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs151264360</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTAAAG/TTAAAG</t>
+  </si>
+  <si>
+    <t>TTAAAG/del</t>
+  </si>
+  <si>
+    <t>del/del</t>
+  </si>
+  <si>
+    <t>Patients with the TTAAAG/TTAAAG genotype and cancer who are treated with fluoropyrimidine-based chemotherapy may have decreased survival time, and decreased risk of toxicity, as compared to patients with the TTAAAG/del or del/del genotypes. Fluoropyrimidines are often used in combination chemotherapy such as FOLFOX (fluorouracil, leucovorin and oxaliplatin) or FOLFIRI (fluorouracil, leucovorin and irinotecan) or with other drugs such as paclitaxel. Other genetic and clinical factors may also influence a patient's response to treatment.</t>
+  </si>
+  <si>
+    <t>Patients with the TTAAAG/del genotype and cancer who are treated with fluoropyrimidine-based chemotherapy may have increased survival time as compared to those with the TTAAAG/TTAAAG genotyoe, and decreased risk of toxicity as compared to those with the del/del genotype. Fluoropyrimidines are often used in combination chemotherapy such as FOLFOX (fluorouracil, leucovorin and oxaliplatin) or FOLFIRI (fluorouracil, leucovorin and irinotecan) or with other drugs such as paclitaxel. Other genetic and clinical factors may also influence a patient's response to treatment.</t>
+  </si>
+  <si>
+    <t>Patients with the del/del genotype and cancer who are treated with fluoropyrimidine-based chemotherapy may have increased survival time, and increased risk of drug toxicity, as compared to patients with the TTAAAG/TTAAAG or TTAAAG/del genotype. Fluoropyrimidines are often used in combination chemotherapy such as FOLFOX (fluorouracil, leucovorin and oxaliplatin) or FOLFIRI (fluorouracil, leucovorin and irinotecan) or with other drugs such as paclitaxel. Other genetic and clinical factors may also influence a patient's response to treatment.</t>
+  </si>
+  <si>
+    <t>毒副作用低、疗效差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用高、疗效好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs8175347</t>
+  </si>
+  <si>
+    <t>rs8175347</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGT1A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TA)6/(TA)6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with the (TA)6/(TA)6 genotype (i.e. UGT1A1*1/*1) and cancer who are treated with irinotecan-based regimens may have a decreased risk of neutropenia, diarrhea, or asthenia, as compared to patients with the (TA)7/(TA)7 (*28/*28) genotype. Evidence for an association between this genotype and neutropenia is stronger than that for diarrhea or asthenia, and some studies only show significant associations with neutropenia and diarrhea at medium and high doses of the drug (&gt;125 mg/m2). No significant associations have been seen for nausea, mucositis, infection, overall gastrointestinal toxicities (diarrhea, nausea, vomiting, and mucositis combined) or tumor response. One study found a decreased risk of vomiting for this genotype, and another found a decreased risk of treatment-related death, both compared to the (TA)7/(TA)7 genotype. Other genetic and clinical factors may also influence a patient's risk of neutropenia, diarrhea, asthenia, vomiting, or treatment-related death.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TA)6/(TA)7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用中等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with the (TA)6/(TA)7 genotype (i.e. UGT1A1*1/*28) with cancer who are treated with irinotecan-based regimens may have an increased risk of neutropenia, diarrhea, or asthenia, as compared to patients with the (TA)6/(TA)6 (*1/*1) genotype, and a decreased risk compared to those with the (TA)7/(TA)7 (*28/*28) genotype. Evidence for an association between this genotype and neutropenia is stronger than that for diarrhea or asthenia, and some studies only show significant associations with neutropenia at medium and high doses of the drug (&gt;125 mg/m2). No significant associations have been seen for nausea, mucositis, infection, or tumor response. One study found a decreased overall survival time for carriers of the (TA)7 allele. One study found an increased risk of vomiting for this genotype, and another found an increased risk of treatment-related death, both compared to the (TA)6/(TA)6 genotype. Other genetic and clinical factors may also influence a patient's survival time and risk of neutropenia, diarrhea, asthenia, vomiting, or treatment-related death.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGT1A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TA)7/(TA)7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with the (TA)7/(TA)7 genotype (i.e. UGT1A1*28/*28) with cancer who are treated with irinotecan-based regimens may have an increased risk of neutropenia, diarrhea, or asthenia, as compared to patients with the (TA)6/(TA)6 (*1/*1) or (TA)6/(TA)7 (*1/*28) genotype. Evidence for an association between this genotype and neutropenia is stronger than that for diarrhea or asthenia, and some studies only show significant associations with neutropenia and diarrhea at medium and high doses of the drug (&gt;125 mg/m2). No significant associations have been seen for nausea, mucositis, infection, overall gastrointestinal toxicities (diarrhea, nausea, vomiting, and mucositis combined), or tumor response. One study found a decreased overall survival time for carriers of the (TA)7 allele. One study found an increased risk of vomiting for this genotype, and another found an increased risk of treatment-related death, both compared to the (TA)6/(TA)6 genotype. Other genetic and clinical factors may also influence a patient's survival time and risk of neutropenia, diarrhea, asthenia, vomiting, or treatment-related death.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1517114</t>
+  </si>
+  <si>
+    <t>毒副作用高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs7779029</t>
+  </si>
+  <si>
+    <t>T/T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8orf34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patients with the CC genotype may have increased severity of Diarrhea when treated with irinotecan in people with Non-Small-Cell Lung Carcinoma as compared to patients with the GG genotype. Other genetic and clinical factors may also influence a patient's risk for toxicity.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8orf34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用中等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patients with the CG genotype may have increased severity of Diarrhea when treated with irinotecan in people with Non-Small-Cell Lung Carcinoma as compared to patients with the GG genotype. Other genetic and clinical factors may also influence a patient's risk for toxicity.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patients with the GG genotype may have decreased severity of Diarrhea when treated with irinotecan in people with Non-Small-Cell Lung Carcinoma as compared to patients with the CC or CG genotype. Other genetic and clinical factors may also influence a patient's risk for toxicity.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEMA3C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patients with the CC genotype may have increased severity of Neutropenia when treated with irinotecan in people with Carcinoma, Non-Small-Cell Lung as compared to patients with genotype TT. Other genetic or clinical factors may also influence the toxicity to irinotecan.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C/T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patients with the CT genotype may have increased severity of Neutropenia when treated with irinotecan in people with Carcinoma, Non-Small-Cell Lung as compared to patients with genotype TT. Other genetic or clinical factors may also influence the toxicity to irinotecan.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒副作用低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patients with the TT genotype may have decreased severity of Neutropenia when treated with irinotecan in people with Carcinoma, Non-Small-Cell Lung as compared to patients with genotype CC or CT. Other genetic or clinical factors may also influence the toxicity to irinotecan.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氟尿嘧啶类（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5-Fu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、卡培他滨、替吉奥等）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -393,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +732,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -777,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,1094 +1081,1409 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="171" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="F61" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    </row>
+    <row r="67" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="68" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="171" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -1993,23 +2594,83 @@
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C114" s="2"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C115" s="2"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C116" s="2"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C117" s="2"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
